--- a/results/3yr_tes.xlsx
+++ b/results/3yr_tes.xlsx
@@ -411,22 +411,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.009587263543385809</v>
+        <v>-0.008380454676492748</v>
       </c>
       <c r="C2">
-        <v>0.005983860265524795</v>
+        <v>0.00505998262946245</v>
       </c>
       <c r="D2">
-        <v>-1.602187069544644</v>
+        <v>-1.656222024893206</v>
       </c>
       <c r="E2">
-        <v>0.1186446743369181</v>
+        <v>0.1071567181838368</v>
       </c>
       <c r="F2">
-        <v>-0.02176151879139526</v>
+        <v>-0.01867506674096203</v>
       </c>
       <c r="G2">
-        <v>0.002586991704623646</v>
+        <v>0.001914157387976534</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -444,22 +444,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.01082172634447807</v>
+        <v>-0.009592142654047535</v>
       </c>
       <c r="C3">
-        <v>0.006312288455263017</v>
+        <v>0.00611261478590258</v>
       </c>
       <c r="D3">
-        <v>-1.714390338967353</v>
+        <v>-1.569237223351573</v>
       </c>
       <c r="E3">
-        <v>0.09583603691558944</v>
+        <v>0.1261328582960841</v>
       </c>
       <c r="F3">
-        <v>-0.02366417376862354</v>
+        <v>-0.02202835094338135</v>
       </c>
       <c r="G3">
-        <v>0.002020721079667385</v>
+        <v>0.002844065635286276</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.002432558509962185</v>
+        <v>-0.001509420859101732</v>
       </c>
       <c r="C4">
-        <v>0.009212180656361186</v>
+        <v>0.008520931876234039</v>
       </c>
       <c r="D4">
-        <v>-0.2640589237991612</v>
+        <v>-0.177142697656309</v>
       </c>
       <c r="E4">
-        <v>0.7933766291811979</v>
+        <v>0.8604791041430426</v>
       </c>
       <c r="F4">
-        <v>-0.02117488097819591</v>
+        <v>-0.01884538710982358</v>
       </c>
       <c r="G4">
-        <v>0.01630976395827154</v>
+        <v>0.01582654539162011</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -510,22 +510,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.006158220833140818</v>
+        <v>-0.006531585062832809</v>
       </c>
       <c r="C5">
-        <v>0.008048745586870777</v>
+        <v>0.007777048686739473</v>
       </c>
       <c r="D5">
-        <v>-0.7651156030060375</v>
+        <v>-0.8398539505056353</v>
       </c>
       <c r="E5">
-        <v>0.4546941326760013</v>
+        <v>0.4126463052604655</v>
       </c>
       <c r="F5">
-        <v>-0.02313958965433794</v>
+        <v>-0.02293972353168388</v>
       </c>
       <c r="G5">
-        <v>0.01082314798805631</v>
+        <v>0.009876553406018267</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -543,22 +543,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.01409057842183774</v>
+        <v>-0.01450244737884917</v>
       </c>
       <c r="C6">
-        <v>0.005837861491793259</v>
+        <v>0.005240509836783618</v>
       </c>
       <c r="D6">
-        <v>-2.413654116605195</v>
+        <v>-2.767373372158404</v>
       </c>
       <c r="E6">
-        <v>0.02735967310255115</v>
+        <v>0.01317884880175711</v>
       </c>
       <c r="F6">
-        <v>-0.0264073895384564</v>
+        <v>-0.02555895666828398</v>
       </c>
       <c r="G6">
-        <v>-0.00177376730521908</v>
+        <v>-0.00344593808941436</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -576,22 +576,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.003751122369756963</v>
+        <v>0.003146077446998164</v>
       </c>
       <c r="C7">
-        <v>0.004401950723719545</v>
+        <v>0.002923320563775768</v>
       </c>
       <c r="D7">
-        <v>0.8521500137528466</v>
+        <v>1.076199950830806</v>
       </c>
       <c r="E7">
-        <v>0.4059761834130802</v>
+        <v>0.2968744487262807</v>
       </c>
       <c r="F7">
-        <v>-0.005536181840001174</v>
+        <v>-0.003021589817456424</v>
       </c>
       <c r="G7">
-        <v>0.0130384265795151</v>
+        <v>0.009313744711452753</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -609,22 +609,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.01197521353894929</v>
+        <v>0.0119313663703422</v>
       </c>
       <c r="C8">
-        <v>0.004340037949008962</v>
+        <v>0.004450865411074488</v>
       </c>
       <c r="D8">
-        <v>2.759241665544376</v>
+        <v>2.68068460139347</v>
       </c>
       <c r="E8">
-        <v>0.01396610803482689</v>
+        <v>0.01640795888734411</v>
       </c>
       <c r="F8">
-        <v>0.002774744092023846</v>
+        <v>0.002495953199284804</v>
       </c>
       <c r="G8">
-        <v>0.02117568298587473</v>
+        <v>0.02136677954139959</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -642,22 +642,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.006115618935660263</v>
+        <v>0.006042036458931341</v>
       </c>
       <c r="C9">
-        <v>0.005862009584475521</v>
+        <v>0.005889896932427891</v>
       </c>
       <c r="D9">
-        <v>1.043263209916337</v>
+        <v>1.025830592325957</v>
       </c>
       <c r="E9">
-        <v>0.3123338988948102</v>
+        <v>0.320231497437595</v>
       </c>
       <c r="F9">
-        <v>-0.006311286246555174</v>
+        <v>-0.006443987259989555</v>
       </c>
       <c r="G9">
-        <v>0.0185425241178757</v>
+        <v>0.01852806017785224</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.005734859786150646</v>
+        <v>0.005647556711181265</v>
       </c>
       <c r="C10">
-        <v>0.002598290239842177</v>
+        <v>0.002780056425510871</v>
       </c>
       <c r="D10">
-        <v>2.207166735344773</v>
+        <v>2.031453987536765</v>
       </c>
       <c r="E10">
-        <v>0.04225473282312806</v>
+        <v>0.05916199121072793</v>
       </c>
       <c r="F10">
-        <v>0.0002267305377943512</v>
+        <v>-0.000245899637393329</v>
       </c>
       <c r="G10">
-        <v>0.01124298903450694</v>
+        <v>0.01154101305975586</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -708,22 +708,22 @@
         </is>
       </c>
       <c r="B11">
-        <v>-0.01535777690731633</v>
+        <v>-0.01498683335745788</v>
       </c>
       <c r="C11">
-        <v>0.006871042752235919</v>
+        <v>0.00561260653087899</v>
       </c>
       <c r="D11">
-        <v>-2.235145007985684</v>
+        <v>-2.670209157724582</v>
       </c>
       <c r="E11">
-        <v>0.04519038722573958</v>
+        <v>0.02178586757999664</v>
       </c>
       <c r="F11">
-        <v>-0.03032849300907998</v>
+        <v>-0.02734009704135595</v>
       </c>
       <c r="G11">
-        <v>-0.0003870608055526886</v>
+        <v>-0.002633569673559806</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -741,22 +741,22 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.004476515776790804</v>
+        <v>0.004476012229546257</v>
       </c>
       <c r="C12">
-        <v>0.004623126959255189</v>
+        <v>0.005381241253004755</v>
       </c>
       <c r="D12">
-        <v>0.9682874418642388</v>
+        <v>0.8317806281305377</v>
       </c>
       <c r="E12">
-        <v>0.3520121864001112</v>
+        <v>0.4232220709569049</v>
       </c>
       <c r="F12">
-        <v>-0.005596412555214845</v>
+        <v>-0.007368019911190146</v>
       </c>
       <c r="G12">
-        <v>0.01454944410879645</v>
+        <v>0.01632004437028266</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -774,22 +774,22 @@
         </is>
       </c>
       <c r="B13">
-        <v>-0.008886972475525085</v>
+        <v>-0.008630771310192907</v>
       </c>
       <c r="C13">
-        <v>0.005997930558132007</v>
+        <v>0.003498863790560836</v>
       </c>
       <c r="D13">
-        <v>-1.481673118651917</v>
+        <v>-2.466735439509485</v>
       </c>
       <c r="E13">
-        <v>0.1642033596317309</v>
+        <v>0.03130232125857307</v>
       </c>
       <c r="F13">
-        <v>-0.02195534052703622</v>
+        <v>-0.01633171859039929</v>
       </c>
       <c r="G13">
-        <v>0.004181395575986053</v>
+        <v>-0.0009298240299865281</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -807,22 +807,22 @@
         </is>
       </c>
       <c r="B14">
-        <v>-0.001420495404980607</v>
+        <v>-0.001125913189884121</v>
       </c>
       <c r="C14">
-        <v>0.005550563522343359</v>
+        <v>0.004701544762313659</v>
       </c>
       <c r="D14">
-        <v>-0.2559191331227025</v>
+        <v>-0.2394772881690171</v>
       </c>
       <c r="E14">
-        <v>0.8023475497574416</v>
+        <v>0.8147769997771944</v>
       </c>
       <c r="F14">
-        <v>-0.01351413441934524</v>
+        <v>-0.01136969923726788</v>
       </c>
       <c r="G14">
-        <v>0.01067314360938403</v>
+        <v>0.00911787285749964</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -840,22 +840,22 @@
         </is>
       </c>
       <c r="B15">
-        <v>-0.00479706780237316</v>
+        <v>-0.004765164865516727</v>
       </c>
       <c r="C15">
-        <v>0.007737875034687802</v>
+        <v>0.007000180512221803</v>
       </c>
       <c r="D15">
-        <v>-0.6199464040022075</v>
+        <v>-0.6807202838836938</v>
       </c>
       <c r="E15">
-        <v>0.5468851832989553</v>
+        <v>0.5089705858169207</v>
       </c>
       <c r="F15">
-        <v>-0.02165644920231269</v>
+        <v>-0.0200172479755321</v>
       </c>
       <c r="G15">
-        <v>0.01206231359756637</v>
+        <v>0.01048691824449865</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.007648411649575886</v>
+        <v>0.007410783908436968</v>
       </c>
       <c r="C16">
-        <v>0.01100979602586405</v>
+        <v>0.01082072882393424</v>
       </c>
       <c r="D16">
-        <v>0.6946914939757601</v>
+        <v>0.6848692014206235</v>
       </c>
       <c r="E16">
-        <v>0.5004784700951407</v>
+        <v>0.5064398788613996</v>
       </c>
       <c r="F16">
-        <v>-0.01633987318359598</v>
+        <v>-0.01616555887950094</v>
       </c>
       <c r="G16">
-        <v>0.03163669648274775</v>
+        <v>0.03098712669637488</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -906,22 +906,22 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.006481990340589729</v>
+        <v>0.0066750954534231</v>
       </c>
       <c r="C17">
-        <v>0.003697402283808963</v>
+        <v>0.002737409046692487</v>
       </c>
       <c r="D17">
-        <v>1.753120121382129</v>
+        <v>2.438472051332035</v>
       </c>
       <c r="E17">
-        <v>0.1134850960750697</v>
+        <v>0.04066130225356525</v>
       </c>
       <c r="F17">
-        <v>-0.001882114719475156</v>
+        <v>0.0003626188720049313</v>
       </c>
       <c r="G17">
-        <v>0.01484609540065461</v>
+        <v>0.01298757203484127</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="B18">
-        <v>-0.008462695314791874</v>
+        <v>-0.008338358399616755</v>
       </c>
       <c r="C18">
-        <v>0.003304566541212616</v>
+        <v>0.002174712856825489</v>
       </c>
       <c r="D18">
-        <v>-2.560909338410984</v>
+        <v>-3.834234194848406</v>
       </c>
       <c r="E18">
-        <v>0.03064138077541292</v>
+        <v>0.004987837165232933</v>
       </c>
       <c r="F18">
-        <v>-0.01593814418593928</v>
+        <v>-0.013353255240338</v>
       </c>
       <c r="G18">
-        <v>-0.0009872464436444647</v>
+        <v>-0.003323461558895512</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.001022335689191196</v>
+        <v>0.001282374313520066</v>
       </c>
       <c r="C19">
-        <v>0.005826365669394027</v>
+        <v>0.005295314208162813</v>
       </c>
       <c r="D19">
-        <v>0.1754671346087216</v>
+        <v>0.2421715243154533</v>
       </c>
       <c r="E19">
-        <v>0.8645969148080083</v>
+        <v>0.8147399404594414</v>
       </c>
       <c r="F19">
-        <v>-0.01215781914291006</v>
+        <v>-0.01092864214770875</v>
       </c>
       <c r="G19">
-        <v>0.01420249052129245</v>
+        <v>0.01349339077474889</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1005,22 +1005,22 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.01739646974652834</v>
+        <v>0.01535522470034329</v>
       </c>
       <c r="C20">
-        <v>0.005686660939991169</v>
+        <v>2.634968679714065e-13</v>
       </c>
       <c r="D20">
-        <v>3.059171265898501</v>
+        <v>58274790203.61476</v>
       </c>
       <c r="E20">
-        <v>0.0120615178902499</v>
+        <v>6.569682223300529e-94</v>
       </c>
       <c r="F20">
-        <v>0.004725799568061236</v>
+        <v>0.01535522469974722</v>
       </c>
       <c r="G20">
-        <v>0.03006713992499545</v>
+        <v>0.01535522470093936</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1038,22 +1038,22 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.02621181932073022</v>
+        <v>0.02422406274834349</v>
       </c>
       <c r="C21">
-        <v>0.005686660939991169</v>
+        <v>2.634852877172881e-13</v>
       </c>
       <c r="D21">
-        <v>4.609351532882304</v>
+        <v>91937060160.77527</v>
       </c>
       <c r="E21">
-        <v>0.0009661912848842975</v>
+        <v>1.085063913363365e-95</v>
       </c>
       <c r="F21">
-        <v>0.01354114914226311</v>
+        <v>0.02422406274774745</v>
       </c>
       <c r="G21">
-        <v>0.03888248949919733</v>
+        <v>0.02422406274893954</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.02188693542160334</v>
+        <v>0.02018310035987475</v>
       </c>
       <c r="C22">
-        <v>0.00568666093999117</v>
+        <v>2.63506622755619e-13</v>
       </c>
       <c r="D22">
-        <v>3.848820186848932</v>
+        <v>76594281194.18819</v>
       </c>
       <c r="E22">
-        <v>0.003218412150146624</v>
+        <v>5.61181993744851e-95</v>
       </c>
       <c r="F22">
-        <v>0.009216265243136228</v>
+        <v>0.02018310035927866</v>
       </c>
       <c r="G22">
-        <v>0.03455760560007045</v>
+        <v>0.02018310036047084</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1104,22 +1104,22 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.0181419628055491</v>
+        <v>0.0182920009707124</v>
       </c>
       <c r="C23">
-        <v>0.02338931679622922</v>
+        <v>0.02348536337306673</v>
       </c>
       <c r="D23">
-        <v>0.7756516773706666</v>
+        <v>0.7788681265068214</v>
       </c>
       <c r="E23">
-        <v>0.4500115107500439</v>
+        <v>0.4481711764553021</v>
       </c>
       <c r="F23">
-        <v>-0.03171118585072728</v>
+        <v>-0.03176586611811685</v>
       </c>
       <c r="G23">
-        <v>0.06799511146182548</v>
+        <v>0.06834986805954166</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="B24">
-        <v>-0.01443871558272125</v>
+        <v>-0.01399817489728096</v>
       </c>
       <c r="C24">
-        <v>0.007231879958832422</v>
+        <v>0.0068734816769261</v>
       </c>
       <c r="D24">
-        <v>-1.996536953726257</v>
+        <v>-2.036547932363312</v>
       </c>
       <c r="E24">
-        <v>0.06435628333074414</v>
+        <v>0.05974811965810848</v>
       </c>
       <c r="F24">
-        <v>-0.02985310283451747</v>
+        <v>-0.02864865429397854</v>
       </c>
       <c r="G24">
-        <v>0.0009756716690749578</v>
+        <v>0.0006523044994166151</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1170,22 +1170,22 @@
         </is>
       </c>
       <c r="B25">
-        <v>-0.003350386444112067</v>
+        <v>-0.002795094491103576</v>
       </c>
       <c r="C25">
-        <v>0.01542087770467127</v>
+        <v>0.01539640849185762</v>
       </c>
       <c r="D25">
-        <v>-0.2172630188940006</v>
+        <v>-0.1815419805587622</v>
       </c>
       <c r="E25">
-        <v>0.8309309478514635</v>
+        <v>0.8583726056757486</v>
       </c>
       <c r="F25">
-        <v>-0.03621920921986652</v>
+        <v>-0.03561176237432616</v>
       </c>
       <c r="G25">
-        <v>0.02951843633164238</v>
+        <v>0.030021573392119</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1203,22 +1203,22 @@
         </is>
       </c>
       <c r="B26">
-        <v>-0.001273685418083981</v>
+        <v>-0.001370496618011708</v>
       </c>
       <c r="C26">
-        <v>0.003879408407763576</v>
+        <v>0.003575058952426443</v>
       </c>
       <c r="D26">
-        <v>-0.3283194972550575</v>
+        <v>-0.3833493758421894</v>
       </c>
       <c r="E26">
-        <v>0.7494414439226083</v>
+        <v>0.7094842569928863</v>
       </c>
       <c r="F26">
-        <v>-0.009917546014144215</v>
+        <v>-0.009336224368054414</v>
       </c>
       <c r="G26">
-        <v>0.007370175177976253</v>
+        <v>0.006595231132030997</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="B27">
-        <v>-0.005623281790563201</v>
+        <v>-0.005853345812493185</v>
       </c>
       <c r="C27">
-        <v>0.00755990891078318</v>
+        <v>0.007763619960145007</v>
       </c>
       <c r="D27">
-        <v>-0.7438293049460365</v>
+        <v>-0.7539454329992549</v>
       </c>
       <c r="E27">
-        <v>0.4740945549665631</v>
+        <v>0.4682631325472569</v>
       </c>
       <c r="F27">
-        <v>-0.02246780855215644</v>
+        <v>-0.0231517690777484</v>
       </c>
       <c r="G27">
-        <v>0.01122124497103004</v>
+        <v>0.01144507745276203</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1269,22 +1269,22 @@
         </is>
       </c>
       <c r="B28">
-        <v>-0.003058309967606873</v>
+        <v>-0.003028397906613542</v>
       </c>
       <c r="C28">
-        <v>0.009310734019090742</v>
+        <v>0.009205252381257386</v>
       </c>
       <c r="D28">
-        <v>-0.3284714138902594</v>
+        <v>-0.3289858638509028</v>
       </c>
       <c r="E28">
-        <v>0.7493299928895107</v>
+        <v>0.7489526204654522</v>
       </c>
       <c r="F28">
-        <v>-0.02380391817605327</v>
+        <v>-0.02353897837963229</v>
       </c>
       <c r="G28">
-        <v>0.01768729824083952</v>
+        <v>0.01748218256640521</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.008409596655097471</v>
+        <v>0.008298363411802154</v>
       </c>
       <c r="C29">
-        <v>0.009863869531353237</v>
+        <v>0.006730268901076228</v>
       </c>
       <c r="D29">
-        <v>0.8525656820953256</v>
+        <v>1.232991360935842</v>
       </c>
       <c r="E29">
-        <v>0.4138532661739771</v>
+        <v>0.2457774773916317</v>
       </c>
       <c r="F29">
-        <v>-0.01356847427863431</v>
+        <v>-0.006697610211000753</v>
       </c>
       <c r="G29">
-        <v>0.03038766758882926</v>
+        <v>0.02329433703460506</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1335,22 +1335,22 @@
         </is>
       </c>
       <c r="B30">
-        <v>-0.01400700522025104</v>
+        <v>-0.01423043148214909</v>
       </c>
       <c r="C30">
-        <v>0.007113353785457491</v>
+        <v>0.006596144804483273</v>
       </c>
       <c r="D30">
-        <v>-1.969114097612705</v>
+        <v>-2.157386155694602</v>
       </c>
       <c r="E30">
-        <v>0.07725806883946831</v>
+        <v>0.05635764959100348</v>
       </c>
       <c r="F30">
-        <v>-0.02985654515755251</v>
+        <v>-0.02892755799434568</v>
       </c>
       <c r="G30">
-        <v>0.001842534717050424</v>
+        <v>0.0004666950300474919</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1368,22 +1368,22 @@
         </is>
       </c>
       <c r="B31">
-        <v>-0.009592219480333604</v>
+        <v>-0.01008728444743056</v>
       </c>
       <c r="C31">
-        <v>0.00329488349180413</v>
+        <v>0.002914618613043689</v>
       </c>
       <c r="D31">
-        <v>-2.91124693913876</v>
+        <v>-3.460927753047102</v>
       </c>
       <c r="E31">
-        <v>0.01553152505451159</v>
+        <v>0.006113248910594755</v>
       </c>
       <c r="F31">
-        <v>-0.01693367740119058</v>
+        <v>-0.01658145941787555</v>
       </c>
       <c r="G31">
-        <v>-0.002250761559476623</v>
+        <v>-0.003593109476985565</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1401,22 +1401,22 @@
         </is>
       </c>
       <c r="B32">
-        <v>-0.01002374632281821</v>
+        <v>-0.007336922347347433</v>
       </c>
       <c r="C32">
-        <v>0.01657489930712364</v>
+        <v>0.01006750463501957</v>
       </c>
       <c r="D32">
-        <v>-0.6047545832456525</v>
+        <v>-0.7287726813480796</v>
       </c>
       <c r="E32">
-        <v>0.5588137704057705</v>
+        <v>0.4897986308208433</v>
       </c>
       <c r="F32">
-        <v>-0.04695492343678077</v>
+        <v>-0.03114278796033747</v>
       </c>
       <c r="G32">
-        <v>0.02690743079114435</v>
+        <v>0.01646894326564261</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="B33">
-        <v>-0.0006587920978646429</v>
+        <v>4.935589204631231e-06</v>
       </c>
       <c r="C33">
-        <v>0.02110929042040042</v>
+        <v>0.01645568536961006</v>
       </c>
       <c r="D33">
-        <v>-0.03120863301155654</v>
+        <v>0.0002999321568061912</v>
       </c>
       <c r="E33">
-        <v>0.9757172544313267</v>
+        <v>0.9997690573715571</v>
       </c>
       <c r="F33">
-        <v>-0.04769322222142049</v>
+        <v>-0.03890657711235589</v>
       </c>
       <c r="G33">
-        <v>0.0463756380256912</v>
+        <v>0.03891644829076516</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1467,22 +1467,22 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.02122152088303382</v>
+        <v>0.02032267166816403</v>
       </c>
       <c r="C34">
-        <v>0.007786345733023138</v>
+        <v>0.007372648880028447</v>
       </c>
       <c r="D34">
-        <v>2.725478884533724</v>
+        <v>2.756495256842561</v>
       </c>
       <c r="E34">
-        <v>0.0213585158062628</v>
+        <v>0.02823827053600641</v>
       </c>
       <c r="F34">
-        <v>0.003872461440287425</v>
+        <v>0.002889127327970385</v>
       </c>
       <c r="G34">
-        <v>0.03857058032578022</v>
+        <v>0.03775621600835768</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1500,22 +1500,22 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.00520764900476921</v>
+        <v>0.005441659842445194</v>
       </c>
       <c r="C35">
-        <v>0.001820587396658208</v>
+        <v>5.444906346702393e-13</v>
       </c>
       <c r="D35">
-        <v>2.860422418790852</v>
+        <v>9994037538.847359</v>
       </c>
       <c r="E35">
-        <v>0.01876746165526721</v>
+        <v>5.119199372684518e-87</v>
       </c>
       <c r="F35">
-        <v>0.001089194184918709</v>
+        <v>0.005441659841213471</v>
       </c>
       <c r="G35">
-        <v>0.009326103824619712</v>
+        <v>0.005441659843676917</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1533,22 +1533,22 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.02643858789439379</v>
+        <v>0.02667481214193636</v>
       </c>
       <c r="C36">
-        <v>0.001820587396658208</v>
+        <v>5.444564824867828e-13</v>
       </c>
       <c r="D36">
-        <v>14.52200973319014</v>
+        <v>48993469634.3411</v>
       </c>
       <c r="E36">
-        <v>1.494032885752902e-07</v>
+        <v>3.130596262472206e-93</v>
       </c>
       <c r="F36">
-        <v>0.02232013307454329</v>
+        <v>0.02667481214070471</v>
       </c>
       <c r="G36">
-        <v>0.0305570427142443</v>
+        <v>0.02667481214316801</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.02119324145560905</v>
+        <v>0.02131980001344677</v>
       </c>
       <c r="C37">
-        <v>0.001820587396658207</v>
+        <v>5.444574493237793e-13</v>
       </c>
       <c r="D37">
-        <v>11.64088112139547</v>
+        <v>39157881005.99256</v>
       </c>
       <c r="E37">
-        <v>9.97014429666503e-07</v>
+        <v>2.352329692589575e-92</v>
       </c>
       <c r="F37">
-        <v>0.01707478663575855</v>
+        <v>0.02131980001221513</v>
       </c>
       <c r="G37">
-        <v>0.02531169627545955</v>
+        <v>0.02131980001467842</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.006867438442695603</v>
+        <v>0.006621861703307655</v>
       </c>
       <c r="C38">
-        <v>0.006481191443541537</v>
+        <v>0.005286030149902585</v>
       </c>
       <c r="D38">
-        <v>1.059595060957343</v>
+        <v>1.252709787027924</v>
       </c>
       <c r="E38">
-        <v>0.2990737222197083</v>
+        <v>0.2272701110581009</v>
       </c>
       <c r="F38">
-        <v>-0.006454841366984322</v>
+        <v>-0.0045306870518534</v>
       </c>
       <c r="G38">
-        <v>0.02018971825237553</v>
+        <v>0.01777441045846871</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1632,22 +1632,22 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.006322686313328378</v>
+        <v>0.006019664762609358</v>
       </c>
       <c r="C39">
-        <v>0.005074492225350184</v>
+        <v>0.004166380280648933</v>
       </c>
       <c r="D39">
-        <v>1.245974184716</v>
+        <v>1.444818849246226</v>
       </c>
       <c r="E39">
-        <v>0.223884679072831</v>
+        <v>0.1666891370945974</v>
       </c>
       <c r="F39">
-        <v>-0.004108081842043306</v>
+        <v>-0.002770629256681306</v>
       </c>
       <c r="G39">
-        <v>0.01675345446870006</v>
+        <v>0.01480995878190002</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1665,22 +1665,22 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.003108720065641181</v>
+        <v>0.00252237197951697</v>
       </c>
       <c r="C40">
-        <v>0.008617689422585811</v>
+        <v>0.007508506539056226</v>
       </c>
       <c r="D40">
-        <v>0.3607370738487792</v>
+        <v>0.3359352444319795</v>
       </c>
       <c r="E40">
-        <v>0.7212104510791704</v>
+        <v>0.7410302737129983</v>
       </c>
       <c r="F40">
-        <v>-0.01460519423556525</v>
+        <v>-0.01331919208284718</v>
       </c>
       <c r="G40">
-        <v>0.02082263436684762</v>
+        <v>0.01836393604188112</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1698,22 +1698,22 @@
         </is>
       </c>
       <c r="B41">
-        <v>-0.0153505908022022</v>
+        <v>-0.01536351352216606</v>
       </c>
       <c r="C41">
-        <v>0.002179208028669775</v>
+        <v>0.002686313352457413</v>
       </c>
       <c r="D41">
-        <v>-7.044114467388622</v>
+        <v>-5.719181460387587</v>
       </c>
       <c r="E41">
-        <v>6.024780622243442e-05</v>
+        <v>0.0002872521967888575</v>
       </c>
       <c r="F41">
-        <v>-0.02028030185348489</v>
+        <v>-0.02144037651394806</v>
       </c>
       <c r="G41">
-        <v>-0.01042087975091951</v>
+        <v>-0.009286650530384067</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1731,22 +1731,22 @@
         </is>
       </c>
       <c r="B42">
-        <v>-0.001907675964620226</v>
+        <v>-0.002043345519121025</v>
       </c>
       <c r="C42">
-        <v>0.001952990894622327</v>
+        <v>5.002550428477605e-05</v>
       </c>
       <c r="D42">
-        <v>-0.9767971626867904</v>
+        <v>-40.84607538364912</v>
       </c>
       <c r="E42">
-        <v>0.3541928999825532</v>
+        <v>1.573835133973677e-11</v>
       </c>
       <c r="F42">
-        <v>-0.006325648305769798</v>
+        <v>-0.002156511071961423</v>
       </c>
       <c r="G42">
-        <v>0.002510296376529346</v>
+        <v>-0.001930179966280626</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B43">
-        <v>-0.02162998974154137</v>
+        <v>-0.02322752554687221</v>
       </c>
       <c r="C43">
-        <v>0.004407718167794858</v>
+        <v>0.00442747657711899</v>
       </c>
       <c r="D43">
-        <v>-4.907298724220079</v>
+        <v>-5.246222118240235</v>
       </c>
       <c r="E43">
-        <v>0.0008391597519539545</v>
+        <v>0.0005303541239657056</v>
       </c>
       <c r="F43">
-        <v>-0.03160094096641429</v>
+        <v>-0.03324317339892321</v>
       </c>
       <c r="G43">
-        <v>-0.01165903851666845</v>
+        <v>-0.01321187769482121</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.02652307620417095</v>
+        <v>0.02596217068258477</v>
       </c>
       <c r="C44">
-        <v>0.003209689740844759</v>
+        <v>4.448646506781232e-13</v>
       </c>
       <c r="D44">
-        <v>8.263439256029256</v>
+        <v>58359707032.26183</v>
       </c>
       <c r="E44">
-        <v>1.933250222959495e-09</v>
+        <v>5.138282716748964e-322</v>
       </c>
       <c r="F44">
-        <v>0.01998515214888245</v>
+        <v>0.02596217068167861</v>
       </c>
       <c r="G44">
-        <v>0.03306100025945945</v>
+        <v>0.02596217068349093</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1830,22 +1830,22 @@
         </is>
       </c>
       <c r="B45">
-        <v>-0.03516431234651729</v>
+        <v>-0.03572611737118066</v>
       </c>
       <c r="C45">
-        <v>0.003209689740844758</v>
+        <v>4.448633085823572e-13</v>
       </c>
       <c r="D45">
-        <v>-10.9556733471885</v>
+        <v>-80308078193.79132</v>
       </c>
       <c r="E45">
-        <v>2.320740818492116e-12</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>-0.04170223640180579</v>
+        <v>-0.03572611737208682</v>
       </c>
       <c r="G45">
-        <v>-0.02862638829122879</v>
+        <v>-0.03572611737027451</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1863,22 +1863,22 @@
         </is>
       </c>
       <c r="B46">
-        <v>-0.007927562045960398</v>
+        <v>-0.008356783578534425</v>
       </c>
       <c r="C46">
-        <v>0.003209689740844757</v>
+        <v>4.448642061977968e-13</v>
       </c>
       <c r="D46">
-        <v>-2.469884221231285</v>
+        <v>-18785021276.40003</v>
       </c>
       <c r="E46">
-        <v>0.01903497563014386</v>
+        <v>2.926834933965473e-306</v>
       </c>
       <c r="F46">
-        <v>-0.01446548610124889</v>
+        <v>-0.008356783579440584</v>
       </c>
       <c r="G46">
-        <v>-0.0013896379906719</v>
+        <v>-0.008356783577628266</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1896,22 +1896,22 @@
         </is>
       </c>
       <c r="B47">
-        <v>-0.001006716231919973</v>
+        <v>-0.001504129291581496</v>
       </c>
       <c r="C47">
-        <v>0.0033633594702634</v>
+        <v>0.001396494011597643</v>
       </c>
       <c r="D47">
-        <v>-0.2993186547024462</v>
+        <v>-1.077075360932421</v>
       </c>
       <c r="E47">
-        <v>0.766467189437414</v>
+        <v>0.2888147146127429</v>
       </c>
       <c r="F47">
-        <v>-0.007834698958057575</v>
+        <v>-0.004339162856279996</v>
       </c>
       <c r="G47">
-        <v>0.005821266494217628</v>
+        <v>0.001330904273117005</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1929,22 +1929,22 @@
         </is>
       </c>
       <c r="B48">
-        <v>-0.004239071498410505</v>
+        <v>-0.004259479211133664</v>
       </c>
       <c r="C48">
-        <v>0.003556236647642623</v>
+        <v>0.002134769593416407</v>
       </c>
       <c r="D48">
-        <v>-1.192010520790433</v>
+        <v>-1.995287559027366</v>
       </c>
       <c r="E48">
-        <v>0.2412769393231108</v>
+        <v>0.05384225994447036</v>
       </c>
       <c r="F48">
-        <v>-0.01145861571152421</v>
+        <v>-0.008593291887716074</v>
       </c>
       <c r="G48">
-        <v>0.002980472714703203</v>
+        <v>7.433346544874399e-05</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1962,22 +1962,22 @@
         </is>
       </c>
       <c r="B49">
-        <v>-0.006335527765891365</v>
+        <v>-0.006441653153728645</v>
       </c>
       <c r="C49">
-        <v>0.003339923523832335</v>
+        <v>0.002094156512861461</v>
       </c>
       <c r="D49">
-        <v>-1.896908034176118</v>
+        <v>-3.076013236912628</v>
       </c>
       <c r="E49">
-        <v>0.06611656663132007</v>
+        <v>0.004056086248882606</v>
       </c>
       <c r="F49">
-        <v>-0.01311593299137321</v>
+        <v>-0.01069301689348579</v>
       </c>
       <c r="G49">
-        <v>0.0004448774595904792</v>
+        <v>-0.002190289413971503</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -1995,22 +1995,22 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.001374507448539978</v>
+        <v>0.001119794509114053</v>
       </c>
       <c r="C50">
-        <v>0.003681249014434367</v>
+        <v>0.002892487299809128</v>
       </c>
       <c r="D50">
-        <v>0.3733807311459953</v>
+        <v>0.3871389544866616</v>
       </c>
       <c r="E50">
-        <v>0.710580362930483</v>
+        <v>0.7004387244269461</v>
       </c>
       <c r="F50">
-        <v>-0.006035462491141443</v>
+        <v>-0.004702480446602082</v>
       </c>
       <c r="G50">
-        <v>0.0087844773882214</v>
+        <v>0.006942069464830189</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2028,22 +2028,22 @@
         </is>
       </c>
       <c r="B51">
-        <v>-0.000221587369043888</v>
+        <v>-0.000193322889468327</v>
       </c>
       <c r="C51">
-        <v>0.004757363160711886</v>
+        <v>0.003786092693664242</v>
       </c>
       <c r="D51">
-        <v>-0.04657777040732159</v>
+        <v>-0.05106131970615488</v>
       </c>
       <c r="E51">
-        <v>0.9630513796683398</v>
+        <v>0.9594977451862008</v>
       </c>
       <c r="F51">
-        <v>-0.009797662737702266</v>
+        <v>-0.007814332209646085</v>
       </c>
       <c r="G51">
-        <v>0.00935448799961449</v>
+        <v>0.007427686430709431</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2061,22 +2061,22 @@
         </is>
       </c>
       <c r="B52">
-        <v>-0.003176620852117052</v>
+        <v>-0.002792566378600451</v>
       </c>
       <c r="C52">
-        <v>0.003564714722012927</v>
+        <v>0.002404760985668273</v>
       </c>
       <c r="D52">
-        <v>-0.8911290523476377</v>
+        <v>-1.161265670577406</v>
       </c>
       <c r="E52">
-        <v>0.3774974862327554</v>
+        <v>0.2515245492041651</v>
       </c>
       <c r="F52">
-        <v>-0.01035201942746016</v>
+        <v>-0.007633099183105264</v>
       </c>
       <c r="G52">
-        <v>0.003998777723226062</v>
+        <v>0.002047966425904363</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2094,22 +2094,22 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.001869549038698284</v>
+        <v>0.001406996503722138</v>
       </c>
       <c r="C53">
-        <v>0.002519173416915391</v>
+        <v>0.002387103457925053</v>
       </c>
       <c r="D53">
-        <v>0.7421279639364639</v>
+        <v>0.5894158039321615</v>
       </c>
       <c r="E53">
-        <v>0.4652113789978591</v>
+        <v>0.5610904727905843</v>
       </c>
       <c r="F53">
-        <v>-0.00332976935296495</v>
+        <v>-0.003519742889546665</v>
       </c>
       <c r="G53">
-        <v>0.007068867430361518</v>
+        <v>0.00633373589699094</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2127,22 +2127,22 @@
         </is>
       </c>
       <c r="B54">
-        <v>-2.025808637858435e-05</v>
+        <v>-0.0003658180014790311</v>
       </c>
       <c r="C54">
-        <v>0.003215857589866415</v>
+        <v>0.003177320091195573</v>
       </c>
       <c r="D54">
-        <v>-0.00629943516230949</v>
+        <v>-0.1151341353654362</v>
       </c>
       <c r="E54">
-        <v>0.995025881983599</v>
+        <v>0.9092966797580992</v>
       </c>
       <c r="F54">
-        <v>-0.006657461940504447</v>
+        <v>-0.0069234843675294</v>
       </c>
       <c r="G54">
-        <v>0.006616945767747278</v>
+        <v>0.006191848364571338</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.004083518449753304</v>
+        <v>0.003876400619734199</v>
       </c>
       <c r="C55">
-        <v>0.002279483157666299</v>
+        <v>0.0012393327776326</v>
       </c>
       <c r="D55">
-        <v>1.791422953058337</v>
+        <v>3.127812553411991</v>
       </c>
       <c r="E55">
-        <v>0.08584567521429176</v>
+        <v>0.004571606209511322</v>
       </c>
       <c r="F55">
-        <v>-0.0006211035606094794</v>
+        <v>0.00131854348259981</v>
       </c>
       <c r="G55">
-        <v>0.008788140460116087</v>
+        <v>0.006434257756868589</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2193,22 +2193,22 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.005852298974359665</v>
+        <v>0.005801813933842542</v>
       </c>
       <c r="C56">
-        <v>0.001290421146705883</v>
+        <v>0.001250681943389748</v>
       </c>
       <c r="D56">
-        <v>4.535185268235176</v>
+        <v>4.638920362212772</v>
       </c>
       <c r="E56">
-        <v>0.001415640788901748</v>
+        <v>0.001221130239771731</v>
       </c>
       <c r="F56">
-        <v>0.002933163534312678</v>
+        <v>0.002972574817221045</v>
       </c>
       <c r="G56">
-        <v>0.008771434414406651</v>
+        <v>0.008631053050464039</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2226,22 +2226,22 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.0009079611944773007</v>
+        <v>0.0009140897299977318</v>
       </c>
       <c r="C57">
-        <v>0.002454866335111828</v>
+        <v>0.002431953574963331</v>
       </c>
       <c r="D57">
-        <v>0.3698617645656622</v>
+        <v>0.3758664389847633</v>
       </c>
       <c r="E57">
-        <v>0.7200389479464919</v>
+        <v>0.715722740915156</v>
       </c>
       <c r="F57">
-        <v>-0.004645332269208099</v>
+        <v>-0.004587371469198269</v>
       </c>
       <c r="G57">
-        <v>0.006461254658162699</v>
+        <v>0.006415550929193731</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2259,22 +2259,22 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.004266728352401802</v>
+        <v>0.004222549402410515</v>
       </c>
       <c r="C58">
-        <v>0.002050421243451761</v>
+        <v>0.002185836978477154</v>
       </c>
       <c r="D58">
-        <v>2.080903310004252</v>
+        <v>1.931776909251628</v>
       </c>
       <c r="E58">
-        <v>0.06716675782145617</v>
+        <v>0.08542875602365753</v>
       </c>
       <c r="F58">
-        <v>-0.0003716467502262004</v>
+        <v>-0.0007221573751607646</v>
       </c>
       <c r="G58">
-        <v>0.008905103455029805</v>
+        <v>0.009167256179981794</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2292,22 +2292,22 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.002753992090498178</v>
+        <v>0.002904608482835482</v>
       </c>
       <c r="C59">
-        <v>0.009221477745707481</v>
+        <v>0.008698623379071001</v>
       </c>
       <c r="D59">
-        <v>0.2986497572778005</v>
+        <v>0.3339158802787125</v>
       </c>
       <c r="E59">
-        <v>0.7772209743153752</v>
+        <v>0.7519925667507953</v>
       </c>
       <c r="F59">
-        <v>-0.02095057110034197</v>
+        <v>-0.01945591477044581</v>
       </c>
       <c r="G59">
-        <v>0.02645855528133833</v>
+        <v>0.02526513173611677</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2325,22 +2325,22 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.001867522966962253</v>
+        <v>0.001912281751040492</v>
       </c>
       <c r="C60">
-        <v>0.005299171840748278</v>
+        <v>0.00421197761160933</v>
       </c>
       <c r="D60">
-        <v>0.3524178915282253</v>
+        <v>0.4540104263065728</v>
       </c>
       <c r="E60">
-        <v>0.7388933224860726</v>
+        <v>0.6688490694093205</v>
       </c>
       <c r="F60">
-        <v>-0.01175443191078072</v>
+        <v>-0.008914951389469277</v>
       </c>
       <c r="G60">
-        <v>0.01548947784470522</v>
+        <v>0.01273951489155026</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2358,22 +2358,22 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.006786538213473766</v>
+        <v>0.006833039583653615</v>
       </c>
       <c r="C61">
-        <v>0.003354536204858911</v>
+        <v>0.0006816560920042798</v>
       </c>
       <c r="D61">
-        <v>2.0230928507028</v>
+        <v>10.02417445366382</v>
       </c>
       <c r="E61">
-        <v>0.09897906640555669</v>
+        <v>0.0001689793785827762</v>
       </c>
       <c r="F61">
-        <v>-0.001836571621720926</v>
+        <v>0.005080786815396577</v>
       </c>
       <c r="G61">
-        <v>0.01540964804866846</v>
+        <v>0.008585292351910653</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2391,22 +2391,22 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.002560327738088324</v>
+        <v>0.002063213252021851</v>
       </c>
       <c r="C62">
-        <v>0.005864738658625348</v>
+        <v>0.006563394972574627</v>
       </c>
       <c r="D62">
-        <v>0.4365629718764734</v>
+        <v>0.3143515300607473</v>
       </c>
       <c r="E62">
-        <v>0.6727141319062518</v>
+        <v>0.7612956055452673</v>
       </c>
       <c r="F62">
-        <v>-0.01070663282646054</v>
+        <v>-0.01307200269571347</v>
       </c>
       <c r="G62">
-        <v>0.01582728830263719</v>
+        <v>0.01719842919975717</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2424,22 +2424,22 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.001786098327137212</v>
+        <v>0.0005006443318294018</v>
       </c>
       <c r="C63">
-        <v>0.006834193864902515</v>
+        <v>0.00728657531393079</v>
       </c>
       <c r="D63">
-        <v>0.2613473311475471</v>
+        <v>0.068707768774756</v>
       </c>
       <c r="E63">
-        <v>0.7997070536781679</v>
+        <v>0.9469085354893749</v>
       </c>
       <c r="F63">
-        <v>-0.01367392227630356</v>
+        <v>-0.01630222847357159</v>
       </c>
       <c r="G63">
-        <v>0.01724611893057798</v>
+        <v>0.0173035171372304</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="B64">
-        <v>8.505638801923525e-05</v>
+        <v>0.0004584889215826777</v>
       </c>
       <c r="C64">
-        <v>0.002077780567868065</v>
+        <v>0.002961605720053266</v>
       </c>
       <c r="D64">
-        <v>0.04093617455788823</v>
+        <v>0.154810925194469</v>
       </c>
       <c r="E64">
-        <v>0.9682405260762356</v>
+        <v>0.8808049196278676</v>
       </c>
       <c r="F64">
-        <v>-0.00461520980630643</v>
+        <v>-0.006370986115704464</v>
       </c>
       <c r="G64">
-        <v>0.0047853225823449</v>
+        <v>0.00728796395886982</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2490,22 +2490,22 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.02273035100468828</v>
+        <v>0.02299122736820252</v>
       </c>
       <c r="C65">
-        <v>0.007303984409883643</v>
+        <v>0.006480504984236301</v>
       </c>
       <c r="D65">
-        <v>3.112048127311157</v>
+        <v>3.547752439683054</v>
       </c>
       <c r="E65">
-        <v>0.005274499958263832</v>
+        <v>0.001905018876599522</v>
       </c>
       <c r="F65">
-        <v>0.007540883904219123</v>
+        <v>0.009514279482157977</v>
       </c>
       <c r="G65">
-        <v>0.03791981810515744</v>
+        <v>0.03646817525424707</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="B66">
-        <v>-0.001927321890093217</v>
+        <v>-0.0007437629673478245</v>
       </c>
       <c r="C66">
-        <v>0.004171984835480073</v>
+        <v>0.005581375138100743</v>
       </c>
       <c r="D66">
-        <v>-0.4619676163974931</v>
+        <v>-0.1332580141891189</v>
       </c>
       <c r="E66">
-        <v>0.6488546840986092</v>
+        <v>0.8952580554963342</v>
       </c>
       <c r="F66">
-        <v>-0.01060343931395151</v>
+        <v>-0.012350867977161</v>
       </c>
       <c r="G66">
-        <v>0.006748795533765076</v>
+        <v>0.01086334204246535</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2556,22 +2556,22 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.003838532199861574</v>
+        <v>0.00461130045353164</v>
       </c>
       <c r="C67">
-        <v>0.005328259560735366</v>
+        <v>0.006262789893795673</v>
       </c>
       <c r="D67">
-        <v>0.7204101369513254</v>
+        <v>0.736301318059527</v>
       </c>
       <c r="E67">
-        <v>0.4792154695853693</v>
+        <v>0.4696931529167557</v>
       </c>
       <c r="F67">
-        <v>-0.00724219015094632</v>
+        <v>-0.008412884116226439</v>
       </c>
       <c r="G67">
-        <v>0.01491925455066947</v>
+        <v>0.01763548502328972</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="B68">
-        <v>-0.002866037521550413</v>
+        <v>-0.003305312912137029</v>
       </c>
       <c r="C68">
-        <v>0.004089268517798015</v>
+        <v>0.0041813401031452</v>
       </c>
       <c r="D68">
-        <v>-0.7008680181006341</v>
+        <v>-0.7904912852343142</v>
       </c>
       <c r="E68">
-        <v>0.499368500351255</v>
+        <v>0.4475817858222887</v>
       </c>
       <c r="F68">
-        <v>-0.01197749558226049</v>
+        <v>-0.01262191924932314</v>
       </c>
       <c r="G68">
-        <v>0.00624542053915967</v>
+        <v>0.006011293425049084</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="B69">
-        <v>-0.005566082011071413</v>
+        <v>-0.005596837945680227</v>
       </c>
       <c r="C69">
-        <v>0.003172594011558338</v>
+        <v>0.002363366540400264</v>
       </c>
       <c r="D69">
-        <v>-1.754426185888633</v>
+        <v>-2.368163317033479</v>
       </c>
       <c r="E69">
-        <v>0.1098910493950872</v>
+        <v>0.03940055505285406</v>
       </c>
       <c r="F69">
-        <v>-0.01263506198980354</v>
+        <v>-0.01086274675583044</v>
       </c>
       <c r="G69">
-        <v>0.001502897967660711</v>
+        <v>-0.0003309291355300097</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2655,22 +2655,22 @@
         </is>
       </c>
       <c r="B70">
-        <v>-0.005135195349837978</v>
+        <v>-0.005773795541576853</v>
       </c>
       <c r="C70">
-        <v>0.004297500638954059</v>
+        <v>0.004746525286749323</v>
       </c>
       <c r="D70">
-        <v>-1.194926023580022</v>
+        <v>-1.216425741519869</v>
       </c>
       <c r="E70">
-        <v>0.2596859294321918</v>
+        <v>0.2517545966894833</v>
       </c>
       <c r="F70">
-        <v>-0.01471062348992735</v>
+        <v>-0.01634971294491831</v>
       </c>
       <c r="G70">
-        <v>0.004440232790251398</v>
+        <v>0.004802121861764604</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2688,22 +2688,22 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.009202812137857903</v>
+        <v>0.009294786091157768</v>
       </c>
       <c r="C71">
-        <v>0.003622731531042134</v>
+        <v>0.003542644797443097</v>
       </c>
       <c r="D71">
-        <v>2.540296474911729</v>
+        <v>2.623685585940278</v>
       </c>
       <c r="E71">
-        <v>0.02592415718908149</v>
+        <v>0.02223322459286873</v>
       </c>
       <c r="F71">
-        <v>0.0013095581995833</v>
+        <v>0.00157602615553489</v>
       </c>
       <c r="G71">
-        <v>0.01709606607613251</v>
+        <v>0.01701354602678064</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2721,22 +2721,22 @@
         </is>
       </c>
       <c r="B72">
-        <v>-0.008216380424238579</v>
+        <v>-0.008147355158319311</v>
       </c>
       <c r="C72">
-        <v>0.002215155469721491</v>
+        <v>0.002195558343180509</v>
       </c>
       <c r="D72">
-        <v>-3.709166483592962</v>
+        <v>-3.710835188518363</v>
       </c>
       <c r="E72">
-        <v>0.002985351810982358</v>
+        <v>0.002976266026163568</v>
       </c>
       <c r="F72">
-        <v>-0.0130427895813753</v>
+        <v>-0.01293106584472393</v>
       </c>
       <c r="G72">
-        <v>-0.003389971267101859</v>
+        <v>-0.003363644471914694</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2754,22 +2754,22 @@
         </is>
       </c>
       <c r="B73">
-        <v>-0.004040537406941104</v>
+        <v>-0.003965935328226113</v>
       </c>
       <c r="C73">
-        <v>0.006142020006578554</v>
+        <v>0.006120341113072847</v>
       </c>
       <c r="D73">
-        <v>-0.6578515541488617</v>
+        <v>-0.6479925309644925</v>
       </c>
       <c r="E73">
-        <v>0.5230532152710572</v>
+        <v>0.5291935236551015</v>
       </c>
       <c r="F73">
-        <v>-0.01742284939734725</v>
+        <v>-0.01730101306732904</v>
       </c>
       <c r="G73">
-        <v>0.009341774583465044</v>
+        <v>0.00936914241087681</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2787,22 +2787,22 @@
         </is>
       </c>
       <c r="B74">
-        <v>-0.002396842784569612</v>
+        <v>-0.002473496097656118</v>
       </c>
       <c r="C74">
-        <v>0.002222545602848043</v>
+        <v>0.002272197893751582</v>
       </c>
       <c r="D74">
-        <v>-1.078422319658242</v>
+        <v>-1.088591845128496</v>
       </c>
       <c r="E74">
-        <v>0.290385984027033</v>
+        <v>0.2859556433963858</v>
       </c>
       <c r="F74">
-        <v>-0.006957129676762299</v>
+        <v>-0.007135661075537841</v>
       </c>
       <c r="G74">
-        <v>0.002163444107623075</v>
+        <v>0.002188668880225607</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2820,22 +2820,22 @@
         </is>
       </c>
       <c r="B75">
-        <v>0.001138868647898073</v>
+        <v>0.001249660133319592</v>
       </c>
       <c r="C75">
-        <v>0.002816319407061231</v>
+        <v>0.002559648697912687</v>
       </c>
       <c r="D75">
-        <v>0.4043819195516813</v>
+        <v>0.4882154861089533</v>
       </c>
       <c r="E75">
-        <v>0.6891174732053664</v>
+        <v>0.6293387956404031</v>
       </c>
       <c r="F75">
-        <v>-0.004639741455665822</v>
+        <v>-0.004002305176526686</v>
       </c>
       <c r="G75">
-        <v>0.006917478751461969</v>
+        <v>0.00650162544316587</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2853,22 +2853,22 @@
         </is>
       </c>
       <c r="B76">
-        <v>-0.005551080962403184</v>
+        <v>-0.005270800003572973</v>
       </c>
       <c r="C76">
-        <v>0.003644416033661728</v>
+        <v>0.003245989950369909</v>
       </c>
       <c r="D76">
-        <v>-1.523174333317191</v>
+        <v>-1.623788146039183</v>
       </c>
       <c r="E76">
-        <v>0.1393429168162459</v>
+        <v>0.1160401771049773</v>
       </c>
       <c r="F76">
-        <v>-0.01302880499502036</v>
+        <v>-0.01193102123993028</v>
       </c>
       <c r="G76">
-        <v>0.001926643070213991</v>
+        <v>0.001389421232784333</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -2886,22 +2886,22 @@
         </is>
       </c>
       <c r="B77">
-        <v>0.006763737193168115</v>
+        <v>0.00647782827047005</v>
       </c>
       <c r="C77">
-        <v>0.005328894265775372</v>
+        <v>0.003216050672825376</v>
       </c>
       <c r="D77">
-        <v>1.269257158395499</v>
+        <v>2.014218347119241</v>
       </c>
       <c r="E77">
-        <v>0.2284144527332397</v>
+        <v>0.06696209341722777</v>
       </c>
       <c r="F77">
-        <v>-0.004846926001043392</v>
+        <v>-0.0005293441963418006</v>
       </c>
       <c r="G77">
-        <v>0.01837440038737962</v>
+        <v>0.0134850007372819</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -2919,22 +2919,22 @@
         </is>
       </c>
       <c r="B78">
-        <v>-0.01180255294207522</v>
+        <v>-0.01043287126368605</v>
       </c>
       <c r="C78">
-        <v>0.00663034206875634</v>
+        <v>0.006827023535030285</v>
       </c>
       <c r="D78">
-        <v>-1.7800820560513</v>
+        <v>-1.5281727403097</v>
       </c>
       <c r="E78">
-        <v>0.1003751407488801</v>
+        <v>0.1523905329105297</v>
       </c>
       <c r="F78">
-        <v>-0.02624882730656388</v>
+        <v>-0.02530767773025015</v>
       </c>
       <c r="G78">
-        <v>0.00264372142241345</v>
+        <v>0.004441935202878052</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -2952,22 +2952,22 @@
         </is>
       </c>
       <c r="B79">
-        <v>-0.006787177851127847</v>
+        <v>-0.005609924989916876</v>
       </c>
       <c r="C79">
-        <v>0.005657073088980116</v>
+        <v>0.003740796102502068</v>
       </c>
       <c r="D79">
-        <v>-1.199768457004587</v>
+        <v>-1.499660723599616</v>
       </c>
       <c r="E79">
-        <v>0.2533813616877552</v>
+        <v>0.1595442872993663</v>
       </c>
       <c r="F79">
-        <v>-0.01911288127576294</v>
+        <v>-0.01376041953121755</v>
       </c>
       <c r="G79">
-        <v>0.005538525573507248</v>
+        <v>0.002540569551383795</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -2985,22 +2985,22 @@
         </is>
       </c>
       <c r="B80">
-        <v>0.002437923605517668</v>
+        <v>0.003470173554586674</v>
       </c>
       <c r="C80">
-        <v>0.008538357725869035</v>
+        <v>0.008818800819040448</v>
       </c>
       <c r="D80">
-        <v>0.2855260559218999</v>
+        <v>0.3934972141670681</v>
       </c>
       <c r="E80">
-        <v>0.7824943584112567</v>
+        <v>0.7056625435694514</v>
       </c>
       <c r="F80">
-        <v>-0.01725156461818876</v>
+        <v>-0.01738297673208268</v>
       </c>
       <c r="G80">
-        <v>0.0221274118292241</v>
+        <v>0.02432332384125603</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3018,22 +3018,22 @@
         </is>
       </c>
       <c r="B81">
-        <v>-0.005772740050103519</v>
+        <v>-0.007905405675957825</v>
       </c>
       <c r="C81">
-        <v>0.01675848458349358</v>
+        <v>0.0133306775646804</v>
       </c>
       <c r="D81">
-        <v>-0.3444667100621633</v>
+        <v>-0.5930235456975703</v>
       </c>
       <c r="E81">
-        <v>0.7393754770658728</v>
+        <v>0.5718188592366189</v>
       </c>
       <c r="F81">
-        <v>-0.04441787479939498</v>
+        <v>-0.03942744913556495</v>
       </c>
       <c r="G81">
-        <v>0.03287239469918795</v>
+        <v>0.0236166377836493</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3051,22 +3051,22 @@
         </is>
       </c>
       <c r="B82">
-        <v>-0.03677604609413198</v>
+        <v>-0.03826405147635885</v>
       </c>
       <c r="C82">
-        <v>0.0103088371994664</v>
+        <v>0.01100573530405677</v>
       </c>
       <c r="D82">
-        <v>-3.567429127315694</v>
+        <v>-3.476737393661878</v>
       </c>
       <c r="E82">
-        <v>0.00732103577514115</v>
+        <v>0.01031159363496898</v>
       </c>
       <c r="F82">
-        <v>-0.06054826730524802</v>
+        <v>-0.06428848008294237</v>
       </c>
       <c r="G82">
-        <v>-0.01300382488301593</v>
+        <v>-0.01223962286977532</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="B83">
-        <v>0.002394648771446309</v>
+        <v>0.001849324600751592</v>
       </c>
       <c r="C83">
-        <v>0.003633642591761848</v>
+        <v>0.001639707191807444</v>
       </c>
       <c r="D83">
-        <v>0.659021549580971</v>
+        <v>1.127838317713961</v>
       </c>
       <c r="E83">
-        <v>0.5343412336799802</v>
+        <v>0.302459198953673</v>
       </c>
       <c r="F83">
-        <v>-0.006496554349160877</v>
+        <v>-0.002162894359289679</v>
       </c>
       <c r="G83">
-        <v>0.01128585189205349</v>
+        <v>0.005861543560792862</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="B84">
-        <v>0.00786226095468555</v>
+        <v>0.007689204528765168</v>
       </c>
       <c r="C84">
-        <v>0.004894679453585704</v>
+        <v>0.003663275630708837</v>
       </c>
       <c r="D84">
-        <v>1.606287200058807</v>
+        <v>2.098996991738053</v>
       </c>
       <c r="E84">
-        <v>0.1593341459006854</v>
+        <v>0.08058937124618167</v>
       </c>
       <c r="F84">
-        <v>-0.004114588207849089</v>
+        <v>-0.001274508026026845</v>
       </c>
       <c r="G84">
-        <v>0.01983911011722019</v>
+        <v>0.01665291708355718</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3150,22 +3150,22 @@
         </is>
       </c>
       <c r="B85">
-        <v>0.002618159467138956</v>
+        <v>0.002236974713177826</v>
       </c>
       <c r="C85">
-        <v>0.004978665867001838</v>
+        <v>0.002862780651200707</v>
       </c>
       <c r="D85">
-        <v>0.5258757139120116</v>
+        <v>0.7813992707543257</v>
       </c>
       <c r="E85">
-        <v>0.6178358652686191</v>
+        <v>0.4642747245015303</v>
       </c>
       <c r="F85">
-        <v>-0.009564197045718781</v>
+        <v>-0.004767997189473695</v>
       </c>
       <c r="G85">
-        <v>0.01480051597999669</v>
+        <v>0.009241946615829348</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3183,22 +3183,22 @@
         </is>
       </c>
       <c r="B86">
-        <v>-0.00347575764462071</v>
+        <v>-0.003921016151605575</v>
       </c>
       <c r="C86">
-        <v>0.01142162754514262</v>
+        <v>0.01113246719602274</v>
       </c>
       <c r="D86">
-        <v>-0.3043136917994563</v>
+        <v>-0.3522144806325072</v>
       </c>
       <c r="E86">
-        <v>0.7616790964860739</v>
+        <v>0.7256035808718939</v>
       </c>
       <c r="F86">
-        <v>-0.02620552083340124</v>
+        <v>-0.02607533190672549</v>
       </c>
       <c r="G86">
-        <v>0.01925400554415982</v>
+        <v>0.01823329960351434</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3216,22 +3216,22 @@
         </is>
       </c>
       <c r="B87">
-        <v>-0.006359332678654054</v>
+        <v>-0.006257110501410723</v>
       </c>
       <c r="C87">
-        <v>0.006745964550944175</v>
+        <v>0.007996889022802527</v>
       </c>
       <c r="D87">
-        <v>-0.9426869398185606</v>
+        <v>-0.782443083000032</v>
       </c>
       <c r="E87">
-        <v>0.3486791996411824</v>
+        <v>0.4362641384587012</v>
       </c>
       <c r="F87">
-        <v>-0.01978422997256723</v>
+        <v>-0.02217142682952124</v>
       </c>
       <c r="G87">
-        <v>0.007065564615259122</v>
+        <v>0.009657205826699797</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3249,22 +3249,22 @@
         </is>
       </c>
       <c r="B88">
-        <v>-0.01046743320237992</v>
+        <v>-0.0116857843184872</v>
       </c>
       <c r="C88">
-        <v>0.003904992076886943</v>
+        <v>0.006945726930551639</v>
       </c>
       <c r="D88">
-        <v>-2.680526105119412</v>
+        <v>-1.682442231796622</v>
       </c>
       <c r="E88">
-        <v>0.008923397957287114</v>
+        <v>0.09638252634813764</v>
       </c>
       <c r="F88">
-        <v>-0.01823861509488105</v>
+        <v>-0.02550822141699994</v>
       </c>
       <c r="G88">
-        <v>-0.002696251309878786</v>
+        <v>0.002136652780025533</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3282,22 +3282,22 @@
         </is>
       </c>
       <c r="B89">
-        <v>-0.006763111261038844</v>
+        <v>-0.006763111265610524</v>
       </c>
       <c r="C89">
-        <v>0.006818610426936258</v>
+        <v>0.00681861043096639</v>
       </c>
       <c r="D89">
-        <v>-0.9918606339968962</v>
+        <v>-0.991860634081129</v>
       </c>
       <c r="E89">
-        <v>0.3774096365685272</v>
+        <v>0.377409636532069</v>
       </c>
       <c r="F89">
-        <v>-0.02569460880515666</v>
+        <v>-0.02569460882091778</v>
       </c>
       <c r="G89">
-        <v>0.01216838628307897</v>
+        <v>0.01216838628969672</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3315,22 +3315,22 @@
         </is>
       </c>
       <c r="B90">
-        <v>0.0001283654030219936</v>
+        <v>0.0001283653987528116</v>
       </c>
       <c r="C90">
-        <v>0.003381266710268934</v>
+        <v>0.003381266712940329</v>
       </c>
       <c r="D90">
-        <v>0.03796370236992746</v>
+        <v>0.03796370107733554</v>
       </c>
       <c r="E90">
-        <v>0.9715357691939168</v>
+        <v>0.9715357701624882</v>
       </c>
       <c r="F90">
-        <v>-0.009259536004072434</v>
+        <v>-0.009259536015758596</v>
       </c>
       <c r="G90">
-        <v>0.009516266810116423</v>
+        <v>0.009516266813264221</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3348,22 +3348,22 @@
         </is>
       </c>
       <c r="B91">
-        <v>0.005104562156317105</v>
+        <v>0.005104562150826634</v>
       </c>
       <c r="C91">
-        <v>0.001394250010298079</v>
+        <v>0.001394250013460595</v>
       </c>
       <c r="D91">
-        <v>3.661152676072632</v>
+        <v>3.661152663830261</v>
       </c>
       <c r="E91">
-        <v>0.02155840164601818</v>
+        <v>0.02155840187853355</v>
       </c>
       <c r="F91">
-        <v>0.001233503539803032</v>
+        <v>0.001233503525532007</v>
       </c>
       <c r="G91">
-        <v>0.008975620772831178</v>
+        <v>0.008975620776121261</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3381,22 +3381,22 @@
         </is>
       </c>
       <c r="B92">
-        <v>0.002277004392032983</v>
+        <v>0.002819610674913303</v>
       </c>
       <c r="C92">
-        <v>0.01083965377673147</v>
+        <v>0.005168584835746165</v>
       </c>
       <c r="D92">
-        <v>0.2100624649950378</v>
+        <v>0.5455285662359159</v>
       </c>
       <c r="E92">
-        <v>0.8361159135756723</v>
+        <v>0.5924767098938954</v>
       </c>
       <c r="F92">
-        <v>-0.02059266600443481</v>
+        <v>-0.008085150126897011</v>
       </c>
       <c r="G92">
-        <v>0.02514667478850077</v>
+        <v>0.01372437147672362</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3414,22 +3414,22 @@
         </is>
       </c>
       <c r="B93">
-        <v>-0.0007395133922438308</v>
+        <v>-0.0005902700718411931</v>
       </c>
       <c r="C93">
-        <v>0.01171193063898701</v>
+        <v>0.007230497922559516</v>
       </c>
       <c r="D93">
-        <v>-0.0631418862558934</v>
+        <v>-0.08163615814057852</v>
       </c>
       <c r="E93">
-        <v>0.9503900089874269</v>
+        <v>0.9358895037221108</v>
       </c>
       <c r="F93">
-        <v>-0.02544952710088194</v>
+        <v>-0.01584528722434869</v>
       </c>
       <c r="G93">
-        <v>0.02397050031639427</v>
+        <v>0.01466474708066631</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3447,22 +3447,22 @@
         </is>
       </c>
       <c r="B94">
-        <v>-0.009125598073869439</v>
+        <v>-0.01000136327607894</v>
       </c>
       <c r="C94">
-        <v>0.00887124858079005</v>
+        <v>0.005107561983643861</v>
       </c>
       <c r="D94">
-        <v>-1.028671216995335</v>
+        <v>-1.958148194404039</v>
       </c>
       <c r="E94">
-        <v>0.3180488025648333</v>
+        <v>0.06683122909353065</v>
       </c>
       <c r="F94">
-        <v>-0.02784229652445198</v>
+        <v>-0.02077737711391999</v>
       </c>
       <c r="G94">
-        <v>0.009591100376713109</v>
+        <v>0.000774650561762116</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3480,22 +3480,22 @@
         </is>
       </c>
       <c r="B95">
-        <v>-0.005823968894745142</v>
+        <v>-0.005758847717104359</v>
       </c>
       <c r="C95">
-        <v>0.0055281975582825</v>
+        <v>0.004442315803485885</v>
       </c>
       <c r="D95">
-        <v>-1.053502309449761</v>
+        <v>-1.296361621248402</v>
       </c>
       <c r="E95">
-        <v>0.311298755161078</v>
+        <v>0.2173919242708212</v>
       </c>
       <c r="F95">
-        <v>-0.01776691362639279</v>
+        <v>-0.01535588754106459</v>
       </c>
       <c r="G95">
-        <v>0.006118975836902509</v>
+        <v>0.003838192106855869</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3513,22 +3513,22 @@
         </is>
       </c>
       <c r="B96">
-        <v>0.00209259902778854</v>
+        <v>0.001585791029731729</v>
       </c>
       <c r="C96">
-        <v>0.008176020061269822</v>
+        <v>0.007238951533528883</v>
       </c>
       <c r="D96">
-        <v>0.255943480092628</v>
+        <v>0.2190636340617519</v>
       </c>
       <c r="E96">
-        <v>0.801999740823064</v>
+        <v>0.8300023466202264</v>
       </c>
       <c r="F96">
-        <v>-0.01557061844718978</v>
+        <v>-0.01405301296895733</v>
       </c>
       <c r="G96">
-        <v>0.01975581650276685</v>
+        <v>0.01722459502842079</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3546,22 +3546,22 @@
         </is>
       </c>
       <c r="B97">
-        <v>-0.01352811154919599</v>
+        <v>-0.01400174118751388</v>
       </c>
       <c r="C97">
-        <v>0.006309432525513694</v>
+        <v>0.005473608856574219</v>
       </c>
       <c r="D97">
-        <v>-2.144109077082899</v>
+        <v>-2.558045624816017</v>
       </c>
       <c r="E97">
-        <v>0.05150725780310424</v>
+        <v>0.02382706602707794</v>
       </c>
       <c r="F97">
-        <v>-0.02715881181738265</v>
+        <v>-0.02582675419899397</v>
       </c>
       <c r="G97">
-        <v>0.000102588718990668</v>
+        <v>-0.002176728176033801</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B98">
-        <v>-0.01161058287699331</v>
+        <v>-0.01199996735911866</v>
       </c>
       <c r="C98">
-        <v>0.02398962260530592</v>
+        <v>0.02070937267706249</v>
       </c>
       <c r="D98">
-        <v>-0.4839835568911923</v>
+        <v>-0.5794462027529067</v>
       </c>
       <c r="E98">
-        <v>0.6349552499299401</v>
+        <v>0.5703575157811381</v>
       </c>
       <c r="F98">
-        <v>-0.06246631096429933</v>
+        <v>-0.05590187624077128</v>
       </c>
       <c r="G98">
-        <v>0.0392451452103127</v>
+        <v>0.03190194152253396</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3612,22 +3612,22 @@
         </is>
       </c>
       <c r="B99">
-        <v>0.03451310672267956</v>
+        <v>0.03430557857406545</v>
       </c>
       <c r="C99">
-        <v>0.007020051124353252</v>
+        <v>0.005511609165092404</v>
       </c>
       <c r="D99">
-        <v>4.91636116479981</v>
+        <v>6.224240062473716</v>
       </c>
       <c r="E99">
-        <v>0.0001549760684399046</v>
+        <v>1.216506990399382e-05</v>
       </c>
       <c r="F99">
-        <v>0.01963126314335898</v>
+        <v>0.02262148909774963</v>
       </c>
       <c r="G99">
-        <v>0.04939495030200015</v>
+        <v>0.04598966805038127</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3645,22 +3645,22 @@
         </is>
       </c>
       <c r="B100">
-        <v>0.01106838557085407</v>
+        <v>0.01000347905761599</v>
       </c>
       <c r="C100">
-        <v>0.02710701507921933</v>
+        <v>0.02374291309731976</v>
       </c>
       <c r="D100">
-        <v>0.4083218140583569</v>
+        <v>0.4213248398211608</v>
       </c>
       <c r="E100">
-        <v>0.6884498356596582</v>
+        <v>0.6791235074419343</v>
       </c>
       <c r="F100">
-        <v>-0.04639591934165342</v>
+        <v>-0.0403292482363419</v>
       </c>
       <c r="G100">
-        <v>0.06853269048336157</v>
+        <v>0.06033620635157388</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3678,22 +3678,22 @@
         </is>
       </c>
       <c r="B101">
-        <v>0.01348419129487536</v>
+        <v>0.011484362981981</v>
       </c>
       <c r="C101">
-        <v>0.01356792450350732</v>
+        <v>0.01379750180987588</v>
       </c>
       <c r="D101">
-        <v>0.9938285912034437</v>
+        <v>0.8323508951280442</v>
       </c>
       <c r="E101">
-        <v>0.3311122654048844</v>
+        <v>0.4141553899620538</v>
       </c>
       <c r="F101">
-        <v>-0.01465396192030357</v>
+        <v>-0.01712990442587764</v>
       </c>
       <c r="G101">
-        <v>0.0416223445100543</v>
+        <v>0.04009863038983964</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3711,22 +3711,22 @@
         </is>
       </c>
       <c r="B102">
-        <v>0.006364520249836192</v>
+        <v>0.002756903763682459</v>
       </c>
       <c r="C102">
-        <v>0.01870500723484026</v>
+        <v>0.01847403986239995</v>
       </c>
       <c r="D102">
-        <v>0.3402575668605747</v>
+        <v>0.1492312338945182</v>
       </c>
       <c r="E102">
-        <v>0.7368900424009822</v>
+        <v>0.8827307301977809</v>
       </c>
       <c r="F102">
-        <v>-0.03242729048944897</v>
+        <v>-0.03555590996233418</v>
       </c>
       <c r="G102">
-        <v>0.04515633098912136</v>
+        <v>0.04106971748969911</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="B103">
-        <v>-0.03840694632970269</v>
+        <v>-0.04129343491969565</v>
       </c>
       <c r="C103">
-        <v>0.01750938569607569</v>
+        <v>0.0132798411151757</v>
       </c>
       <c r="D103">
-        <v>-2.193506214116391</v>
+        <v>-3.10948260310939</v>
       </c>
       <c r="E103">
-        <v>0.03913027691963299</v>
+        <v>0.005110519199811651</v>
       </c>
       <c r="F103">
-        <v>-0.07471918976033805</v>
+        <v>-0.0688341397545031</v>
       </c>
       <c r="G103">
-        <v>-0.002094702899067324</v>
+        <v>-0.0137527300848882</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3777,22 +3777,22 @@
         </is>
       </c>
       <c r="B104">
-        <v>-0.01005323914652162</v>
+        <v>-0.01077658908470973</v>
       </c>
       <c r="C104">
-        <v>0.007617670990865727</v>
+        <v>0.007636124537979524</v>
       </c>
       <c r="D104">
-        <v>-1.319726089322624</v>
+        <v>-1.411264186579277</v>
       </c>
       <c r="E104">
-        <v>0.1908881308732507</v>
+        <v>0.1622474685094875</v>
       </c>
       <c r="F104">
-        <v>-0.02522514580831362</v>
+        <v>-0.02598524917083906</v>
       </c>
       <c r="G104">
-        <v>0.005118667515270374</v>
+        <v>0.004432071001419603</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3810,22 +3810,22 @@
         </is>
       </c>
       <c r="B105">
-        <v>0.02879546184731972</v>
+        <v>0.02788675517712082</v>
       </c>
       <c r="C105">
-        <v>0.0125759467614673</v>
+        <v>0.01217360903621464</v>
       </c>
       <c r="D105">
-        <v>2.289725170875326</v>
+        <v>2.290754951482503</v>
       </c>
       <c r="E105">
-        <v>0.02481352351095514</v>
+        <v>0.02475080903934106</v>
       </c>
       <c r="F105">
-        <v>0.003748293142155773</v>
+        <v>0.003640911499169345</v>
       </c>
       <c r="G105">
-        <v>0.05384263055248366</v>
+        <v>0.05213259885507229</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -3843,22 +3843,22 @@
         </is>
       </c>
       <c r="B106">
-        <v>-0.00321289665285631</v>
+        <v>-0.005173736415715609</v>
       </c>
       <c r="C106">
-        <v>0.008560186745672955</v>
+        <v>0.008019200707471618</v>
       </c>
       <c r="D106">
-        <v>-0.3753302057902394</v>
+        <v>-0.6451685902929398</v>
       </c>
       <c r="E106">
-        <v>0.7084603839870881</v>
+        <v>0.5207608830752652</v>
       </c>
       <c r="F106">
-        <v>-0.02026198612765643</v>
+        <v>-0.02114535881602994</v>
       </c>
       <c r="G106">
-        <v>0.01383619282194381</v>
+        <v>0.01079788598459873</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -3876,22 +3876,22 @@
         </is>
       </c>
       <c r="B107">
-        <v>0.0005918782946195015</v>
+        <v>0.000815535386264796</v>
       </c>
       <c r="C107">
-        <v>0.003113143414525631</v>
+        <v>0.002174827456187223</v>
       </c>
       <c r="D107">
-        <v>0.1901223990702946</v>
+        <v>0.3749885463072752</v>
       </c>
       <c r="E107">
-        <v>0.8584719010774018</v>
+        <v>0.7267045047783645</v>
       </c>
       <c r="F107">
-        <v>-0.008051593500418931</v>
+        <v>-0.005222753659115988</v>
       </c>
       <c r="G107">
-        <v>0.009235350089657934</v>
+        <v>0.006853824431645581</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="B108">
-        <v>-0.0008136283193297065</v>
+        <v>-0.000890733991045396</v>
       </c>
       <c r="C108">
-        <v>0.000786705287071528</v>
+        <v>0.001852843861761797</v>
       </c>
       <c r="D108">
-        <v>-1.034222513437526</v>
+        <v>-0.4807388304152254</v>
       </c>
       <c r="E108">
-        <v>0.3594586049980046</v>
+        <v>0.6558140316511152</v>
       </c>
       <c r="F108">
-        <v>-0.002997872362852675</v>
+        <v>-0.006035053261729715</v>
       </c>
       <c r="G108">
-        <v>0.001370615724193262</v>
+        <v>0.004253585279638923</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -3942,22 +3942,22 @@
         </is>
       </c>
       <c r="B109">
-        <v>-0.002734127381359946</v>
+        <v>-0.002765543627533102</v>
       </c>
       <c r="C109">
-        <v>0.003516759285047035</v>
+        <v>0.004678501238218809</v>
       </c>
       <c r="D109">
-        <v>-0.7774565046249328</v>
+        <v>-0.5911174298600794</v>
       </c>
       <c r="E109">
-        <v>0.4803068671866568</v>
+        <v>0.5862282700252677</v>
       </c>
       <c r="F109">
-        <v>-0.01249821648448768</v>
+        <v>-0.01575514549004753</v>
       </c>
       <c r="G109">
-        <v>0.007029961721767787</v>
+        <v>0.01022405823498133</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -3975,22 +3975,22 @@
         </is>
       </c>
       <c r="B110">
-        <v>-0.000873457744243967</v>
+        <v>-0.001689920988422983</v>
       </c>
       <c r="C110">
-        <v>0.006143209430752136</v>
+        <v>0.004675268179609411</v>
       </c>
       <c r="D110">
-        <v>-0.1421826415149624</v>
+        <v>-0.3614596903324945</v>
       </c>
       <c r="E110">
-        <v>0.887918959658893</v>
+        <v>0.7203760959605391</v>
       </c>
       <c r="F110">
-        <v>-0.01343773176984741</v>
+        <v>-0.01125191805427996</v>
       </c>
       <c r="G110">
-        <v>0.01169081628135947</v>
+        <v>0.007872076077433988</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4008,22 +4008,22 @@
         </is>
       </c>
       <c r="B111">
-        <v>0.002061807139346328</v>
+        <v>0.002191066273424456</v>
       </c>
       <c r="C111">
-        <v>0.005282857586042159</v>
+        <v>0.004847885595044553</v>
       </c>
       <c r="D111">
-        <v>0.3902825517753555</v>
+        <v>0.4519632797572897</v>
       </c>
       <c r="E111">
-        <v>0.6991797149949784</v>
+        <v>0.6546578981526123</v>
       </c>
       <c r="F111">
-        <v>-0.008742849790792713</v>
+        <v>-0.007723973047228804</v>
       </c>
       <c r="G111">
-        <v>0.01286646406948537</v>
+        <v>0.01210610559407772</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4041,22 +4041,22 @@
         </is>
       </c>
       <c r="B112">
-        <v>0.01395800711683958</v>
+        <v>0.01450394859271882</v>
       </c>
       <c r="C112">
-        <v>0.008379829344188253</v>
+        <v>0.007179216671306927</v>
       </c>
       <c r="D112">
-        <v>1.665667228237771</v>
+        <v>2.020268959242662</v>
       </c>
       <c r="E112">
-        <v>0.1065475928317617</v>
+        <v>0.05267747452953244</v>
       </c>
       <c r="F112">
-        <v>-0.003180668253907681</v>
+        <v>-0.0001791981507313876</v>
       </c>
       <c r="G112">
-        <v>0.03109668248758685</v>
+        <v>0.02918709533616902</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4074,22 +4074,22 @@
         </is>
       </c>
       <c r="B113">
-        <v>0.0264246288548665</v>
+        <v>0.02696863106413036</v>
       </c>
       <c r="C113">
-        <v>0.01757215340007568</v>
+        <v>0.01734236450951741</v>
       </c>
       <c r="D113">
-        <v>1.503778635050653</v>
+        <v>1.555072323000136</v>
       </c>
       <c r="E113">
-        <v>0.1382575530888506</v>
+        <v>0.1255627367263698</v>
       </c>
       <c r="F113">
-        <v>-0.008776624354006189</v>
+        <v>-0.007772299682437128</v>
       </c>
       <c r="G113">
-        <v>0.06162588206373919</v>
+        <v>0.06170956181069785</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4107,22 +4107,22 @@
         </is>
       </c>
       <c r="B114">
-        <v>0.01244756296624796</v>
+        <v>0.01321500564131937</v>
       </c>
       <c r="C114">
-        <v>0.01017192944661197</v>
+        <v>0.00961120275602928</v>
       </c>
       <c r="D114">
-        <v>1.223716997997263</v>
+        <v>1.374958574568553</v>
       </c>
       <c r="E114">
-        <v>0.2261829904375162</v>
+        <v>0.1746207437295161</v>
       </c>
       <c r="F114">
-        <v>-0.007929260290452848</v>
+        <v>-0.006038547076661379</v>
       </c>
       <c r="G114">
-        <v>0.03282438622294877</v>
+        <v>0.03246855835930011</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4140,22 +4140,22 @@
         </is>
       </c>
       <c r="B115">
-        <v>-0.00915043166937073</v>
+        <v>-0.008027863889277977</v>
       </c>
       <c r="C115">
-        <v>0.01206477557925201</v>
+        <v>0.01180082958207678</v>
       </c>
       <c r="D115">
-        <v>-0.7584419295048371</v>
+        <v>-0.6802796221606978</v>
       </c>
       <c r="E115">
-        <v>0.451366783684457</v>
+        <v>0.4991303497343702</v>
       </c>
       <c r="F115">
-        <v>-0.03331908137348977</v>
+        <v>-0.0316677662242787</v>
       </c>
       <c r="G115">
-        <v>0.01501821803474831</v>
+        <v>0.01561203844572275</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4173,22 +4173,22 @@
         </is>
       </c>
       <c r="B116">
-        <v>-0.005749948703727185</v>
+        <v>-0.005370929373740418</v>
       </c>
       <c r="C116">
-        <v>0.00765379073541365</v>
+        <v>0.004865446366909753</v>
       </c>
       <c r="D116">
-        <v>-0.7512550189179464</v>
+        <v>-1.103892421930389</v>
       </c>
       <c r="E116">
-        <v>0.4658821971896141</v>
+        <v>0.2896543081147227</v>
       </c>
       <c r="F116">
-        <v>-0.02228495831164013</v>
+        <v>-0.01588208720451301</v>
       </c>
       <c r="G116">
-        <v>0.01078506090418576</v>
+        <v>0.005140228457032177</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4206,22 +4206,22 @@
         </is>
       </c>
       <c r="B117">
-        <v>0.0001728693812685815</v>
+        <v>0.000115405222024563</v>
       </c>
       <c r="C117">
-        <v>0.003574545850297913</v>
+        <v>0.005905268155424056</v>
       </c>
       <c r="D117">
-        <v>0.04836121524477692</v>
+        <v>0.01954275724440423</v>
       </c>
       <c r="E117">
-        <v>0.9621634649006614</v>
+        <v>0.9847048939950876</v>
       </c>
       <c r="F117">
-        <v>-0.007549467434804167</v>
+        <v>-0.01264215100896141</v>
       </c>
       <c r="G117">
-        <v>0.007895206197341331</v>
+        <v>0.01287296145301054</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -4239,22 +4239,22 @@
         </is>
       </c>
       <c r="B118">
-        <v>-0.0004052290010734963</v>
+        <v>-0.0005721408062738599</v>
       </c>
       <c r="C118">
-        <v>0.004077951847274094</v>
+        <v>0.006982785252435022</v>
       </c>
       <c r="D118">
-        <v>-0.09937071751947527</v>
+        <v>-0.08193590173410305</v>
       </c>
       <c r="E118">
-        <v>0.922359942826237</v>
+        <v>0.9359457905318127</v>
       </c>
       <c r="F118">
-        <v>-0.009215108354488988</v>
+        <v>-0.0156575312004451</v>
       </c>
       <c r="G118">
-        <v>0.008404650352341997</v>
+        <v>0.01451324958789738</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4272,22 +4272,22 @@
         </is>
       </c>
       <c r="B119">
-        <v>-0.004048197509005677</v>
+        <v>-0.004033780635103848</v>
       </c>
       <c r="C119">
-        <v>0.006304569063133986</v>
+        <v>0.006327116334915249</v>
       </c>
       <c r="D119">
-        <v>-0.6421053474816449</v>
+        <v>-0.637538559682241</v>
       </c>
       <c r="E119">
-        <v>0.5387649603166195</v>
+        <v>0.5415864767438119</v>
       </c>
       <c r="F119">
-        <v>-0.0185865598392729</v>
+        <v>-0.01862413706733624</v>
       </c>
       <c r="G119">
-        <v>0.01049016482126155</v>
+        <v>0.01055657579712854</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4305,22 +4305,22 @@
         </is>
       </c>
       <c r="B120">
-        <v>0.004100901687138137</v>
+        <v>0.004121623259777676</v>
       </c>
       <c r="C120">
-        <v>0.005587295294563297</v>
+        <v>0.005580222292701479</v>
       </c>
       <c r="D120">
-        <v>0.7339690263245096</v>
+        <v>0.7386127368381823</v>
       </c>
       <c r="E120">
-        <v>0.4839207573844478</v>
+        <v>0.4812469720179033</v>
       </c>
       <c r="F120">
-        <v>-0.008783424366731605</v>
+        <v>-0.008746392422550407</v>
       </c>
       <c r="G120">
-        <v>0.01698522774100788</v>
+        <v>0.01698963894210576</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -4338,22 +4338,22 @@
         </is>
       </c>
       <c r="B121">
-        <v>-0.001045822879213658</v>
+        <v>-0.0009893689906082727</v>
       </c>
       <c r="C121">
-        <v>0.004431238710266424</v>
+        <v>0.004421336691109229</v>
       </c>
       <c r="D121">
-        <v>-0.2360114061990532</v>
+        <v>-0.2237714654479433</v>
       </c>
       <c r="E121">
-        <v>0.8193539262113249</v>
+        <v>0.8285438361097107</v>
       </c>
       <c r="F121">
-        <v>-0.01126427766916481</v>
+        <v>-0.01118498968343606</v>
       </c>
       <c r="G121">
-        <v>0.009172631910737493</v>
+        <v>0.00920625170221951</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -4371,22 +4371,22 @@
         </is>
       </c>
       <c r="B122">
-        <v>-0.01947923238043359</v>
+        <v>-0.01904749925289706</v>
       </c>
       <c r="C122">
-        <v>0.008243394555540727</v>
+        <v>0.008069767160992761</v>
       </c>
       <c r="D122">
-        <v>-2.363011044684351</v>
+        <v>-2.360353015508045</v>
       </c>
       <c r="E122">
-        <v>0.04239170074383117</v>
+        <v>0.0425767348944928</v>
       </c>
       <c r="F122">
-        <v>-0.03812708642002177</v>
+        <v>-0.03730258083825057</v>
       </c>
       <c r="G122">
-        <v>-0.0008313783408454047</v>
+        <v>-0.0007924176675435553</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -4404,22 +4404,22 @@
         </is>
       </c>
       <c r="B123">
-        <v>-0.01708326283674552</v>
+        <v>-0.01602826712624937</v>
       </c>
       <c r="C123">
-        <v>0.0033452957421269</v>
+        <v>0.003088291486448951</v>
       </c>
       <c r="D123">
-        <v>-5.106652491622214</v>
+        <v>-5.190011110214</v>
       </c>
       <c r="E123">
-        <v>0.0006393845800282741</v>
+        <v>0.0005716393869054765</v>
       </c>
       <c r="F123">
-        <v>-0.02465084756147622</v>
+        <v>-0.02301446783312858</v>
       </c>
       <c r="G123">
-        <v>-0.009515678112014814</v>
+        <v>-0.009042066419370156</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -4437,22 +4437,22 @@
         </is>
       </c>
       <c r="B124">
-        <v>-0.002710040792594323</v>
+        <v>-0.002319523931222529</v>
       </c>
       <c r="C124">
-        <v>0.009891021014039846</v>
+        <v>0.009878995538948297</v>
       </c>
       <c r="D124">
-        <v>-0.273989994435109</v>
+        <v>-0.2347934992052301</v>
       </c>
       <c r="E124">
-        <v>0.7902769073755258</v>
+        <v>0.8196237731720287</v>
       </c>
       <c r="F124">
-        <v>-0.02508508482689212</v>
+        <v>-0.02466736445090593</v>
       </c>
       <c r="G124">
-        <v>0.01966500324170348</v>
+        <v>0.02002831658846087</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4470,22 +4470,22 @@
         </is>
       </c>
       <c r="B125">
-        <v>0.003342499809456018</v>
+        <v>0.003294830241561618</v>
       </c>
       <c r="C125">
-        <v>0.002655385442157763</v>
+        <v>0.002435582457112352</v>
       </c>
       <c r="D125">
-        <v>1.258762572238818</v>
+        <v>1.352789445473342</v>
       </c>
       <c r="E125">
-        <v>0.2397857846069204</v>
+        <v>0.2091268034456032</v>
       </c>
       <c r="F125">
-        <v>-0.002664399388511243</v>
+        <v>-0.00221484005938074</v>
       </c>
       <c r="G125">
-        <v>0.009349399007423279</v>
+        <v>0.008804500542503976</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -4503,22 +4503,22 @@
         </is>
       </c>
       <c r="B126">
-        <v>-0.000101365320188994</v>
+        <v>0.0001299736498498788</v>
       </c>
       <c r="C126">
-        <v>0.003199581350809633</v>
+        <v>0.002935995766676266</v>
       </c>
       <c r="D126">
-        <v>-0.03168080729166152</v>
+        <v>0.04426901813861173</v>
       </c>
       <c r="E126">
-        <v>0.9754180505268992</v>
+        <v>0.965656614560812</v>
       </c>
       <c r="F126">
-        <v>-0.007339321190878561</v>
+        <v>-0.006511710203682043</v>
       </c>
       <c r="G126">
-        <v>0.007136590550500573</v>
+        <v>0.006771657503381801</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -4536,22 +4536,22 @@
         </is>
       </c>
       <c r="B127">
-        <v>0.003780418323334552</v>
+        <v>0.004231856110315073</v>
       </c>
       <c r="C127">
-        <v>0.002440420430125411</v>
+        <v>0.001759762168611217</v>
       </c>
       <c r="D127">
-        <v>1.549084853030951</v>
+        <v>2.404788661671708</v>
       </c>
       <c r="E127">
-        <v>0.1557704646396838</v>
+        <v>0.03958584991300605</v>
       </c>
       <c r="F127">
-        <v>-0.001740196232912723</v>
+        <v>0.0002509975157699053</v>
       </c>
       <c r="G127">
-        <v>0.009301032879581827</v>
+        <v>0.008212714704860241</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
